--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Project: Shared Sounds</t>
   </si>
@@ -95,7 +95,10 @@
     <t>Socket IO Rooms</t>
   </si>
   <si>
-    <t>Add basic UI</t>
+    <t>Add basic CSS</t>
+  </si>
+  <si>
+    <t>Get Spotify songs</t>
   </si>
   <si>
     <t>Testing</t>
@@ -1417,8 +1420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones34" displayName="Milestones34" ref="B7:G31" totalsRowShown="0">
-  <autoFilter ref="B7:G31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones34" displayName="Milestones34" ref="B7:G32" totalsRowShown="0">
+  <autoFilter ref="B7:G32">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1697,10 +1700,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EM33"/>
+  <dimension ref="A1:EM34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="R5" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="30" customHeight="1"/>
@@ -3609,7 +3612,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="38">
         <v>45292</v>
@@ -5472,11 +5475,18 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>45419</v>
+      </c>
+      <c r="F23" s="39">
+        <f>E23+G23</f>
+        <v>45420</v>
+      </c>
+      <c r="G23" s="36">
+        <v>1</v>
+      </c>
       <c r="H23" s="37"/>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
@@ -5614,16 +5624,25 @@
       <c r="EL23" s="49"/>
       <c r="EM23" s="49"/>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:143">
+    <row r="24" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
       <c r="A24" s="9"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="38">
+        <v>45419</v>
+      </c>
+      <c r="F24" s="39">
+        <f>E24+G24</f>
+        <v>45421</v>
+      </c>
+      <c r="G24" s="36">
+        <v>2</v>
+      </c>
       <c r="H24" s="37"/>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
@@ -5761,15 +5780,13 @@
       <c r="EL24" s="49"/>
       <c r="EM24" s="49"/>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:143">
       <c r="A25" s="9"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
+      <c r="D25" s="26"/>
       <c r="E25" s="38"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -5911,7 +5928,7 @@
       <c r="EM25" s="49"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
-      <c r="A26" s="2"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="23" t="s">
         <v>26</v>
       </c>
@@ -6208,13 +6225,15 @@
       <c r="EL27" s="49"/>
       <c r="EM27" s="49"/>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:143">
+    <row r="28" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
       <c r="A28" s="2"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="26"/>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
       <c r="E28" s="38"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
@@ -6355,15 +6374,13 @@
       <c r="EL28" s="49"/>
       <c r="EM28" s="49"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:143">
       <c r="A29" s="2"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
+      <c r="D29" s="26"/>
       <c r="E29" s="38"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
@@ -6514,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
       <c r="I30" s="49"/>
@@ -6802,17 +6819,166 @@
       <c r="EL31" s="49"/>
       <c r="EM31" s="49"/>
     </row>
-    <row r="32" customHeight="1" spans="3:8">
-      <c r="C32" s="27"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
+    <row r="32" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
+      <c r="A32" s="2"/>
+      <c r="B32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="49"/>
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="49"/>
+      <c r="BG32" s="49"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="BK32" s="49"/>
+      <c r="BL32" s="49"/>
+      <c r="BM32" s="49"/>
+      <c r="BN32" s="49"/>
+      <c r="BO32" s="49"/>
+      <c r="BP32" s="49"/>
+      <c r="BQ32" s="49"/>
+      <c r="BR32" s="49"/>
+      <c r="BS32" s="49"/>
+      <c r="BT32" s="49"/>
+      <c r="BU32" s="49"/>
+      <c r="BV32" s="49"/>
+      <c r="BW32" s="49"/>
+      <c r="BX32" s="49"/>
+      <c r="BY32" s="49"/>
+      <c r="BZ32" s="49"/>
+      <c r="CA32" s="49"/>
+      <c r="CB32" s="49"/>
+      <c r="CC32" s="49"/>
+      <c r="CD32" s="49"/>
+      <c r="CE32" s="49"/>
+      <c r="CF32" s="49"/>
+      <c r="CG32" s="49"/>
+      <c r="CH32" s="49"/>
+      <c r="CI32" s="49"/>
+      <c r="CJ32" s="49"/>
+      <c r="CK32" s="49"/>
+      <c r="CL32" s="49"/>
+      <c r="CM32" s="49"/>
+      <c r="CN32" s="49"/>
+      <c r="CO32" s="49"/>
+      <c r="CP32" s="49"/>
+      <c r="CQ32" s="49"/>
+      <c r="CR32" s="49"/>
+      <c r="CS32" s="49"/>
+      <c r="CT32" s="49"/>
+      <c r="CU32" s="49"/>
+      <c r="CV32" s="49"/>
+      <c r="CW32" s="49"/>
+      <c r="CX32" s="49"/>
+      <c r="CY32" s="49"/>
+      <c r="CZ32" s="49"/>
+      <c r="DA32" s="49"/>
+      <c r="DB32" s="49"/>
+      <c r="DC32" s="49"/>
+      <c r="DD32" s="49"/>
+      <c r="DE32" s="49"/>
+      <c r="DF32" s="49"/>
+      <c r="DG32" s="49"/>
+      <c r="DH32" s="49"/>
+      <c r="DI32" s="49"/>
+      <c r="DJ32" s="49"/>
+      <c r="DK32" s="49"/>
+      <c r="DL32" s="49"/>
+      <c r="DM32" s="49"/>
+      <c r="DN32" s="49"/>
+      <c r="DO32" s="49"/>
+      <c r="DP32" s="49"/>
+      <c r="DQ32" s="49"/>
+      <c r="DR32" s="49"/>
+      <c r="DS32" s="49"/>
+      <c r="DT32" s="49"/>
+      <c r="DU32" s="49"/>
+      <c r="DV32" s="49"/>
+      <c r="DW32" s="49"/>
+      <c r="DX32" s="49"/>
+      <c r="DY32" s="49"/>
+      <c r="DZ32" s="49"/>
+      <c r="EA32" s="49"/>
+      <c r="EB32" s="49"/>
+      <c r="EC32" s="49"/>
+      <c r="ED32" s="49"/>
+      <c r="EE32" s="49"/>
+      <c r="EF32" s="49"/>
+      <c r="EG32" s="49"/>
+      <c r="EH32" s="49"/>
+      <c r="EI32" s="49"/>
+      <c r="EJ32" s="49"/>
+      <c r="EK32" s="49"/>
+      <c r="EL32" s="49"/>
+      <c r="EM32" s="49"/>
     </row>
-    <row r="33" customHeight="1" spans="3:3">
-      <c r="C33" s="28"/>
+    <row r="33" customHeight="1" spans="3:8">
+      <c r="C33" s="27"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:3">
+      <c r="C34" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D7:D16 D18:D19 D24:D31">
+  <conditionalFormatting sqref="D7:D16 D18:D19 D25:D32">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6821,17 +6987,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4eee3d0f-6f5f-4517-81dd-aac6b3c5c52b}</x14:id>
+          <x14:id>{86f64265-14bf-4ef8-946b-6c441c37c5eb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:EM16 I18:EM19 I24:EM31">
+  <conditionalFormatting sqref="I8:EM16 I18:EM19 I25:EM32">
     <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
       <formula>AND(I$6&gt;=$E8,I$6&lt;$E8+$G8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D20:D23">
+  <conditionalFormatting sqref="D17 D20:D24">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6840,12 +7006,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ace20fc2-9386-4d54-9b47-3d5d1d3ca383}</x14:id>
+          <x14:id>{dcd6b5e6-bd52-4083-a94b-3b47385559e3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:EM17 I20:EM23">
+  <conditionalFormatting sqref="I17:EM17 I20:EM24">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>AND(I$6&gt;=$E17,I$6&lt;$E17+$G17)</formula>
     </cfRule>
@@ -6873,7 +7039,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{0a761581-8990-4102-8263-256f9f5309b9}">
+          <x14:cfRule type="iconSet" priority="12" id="{dccdea09-7142-4e50-9cac-710ac466748f}">
             <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6892,7 +7058,7 @@
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4eee3d0f-6f5f-4517-81dd-aac6b3c5c52b}">
+          <x14:cfRule type="dataBar" id="{86f64265-14bf-4ef8-946b-6c441c37c5eb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6904,10 +7070,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D16 D18:D19 D24:D31</xm:sqref>
+          <xm:sqref>D7:D16 D18:D19 D25:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ace20fc2-9386-4d54-9b47-3d5d1d3ca383}">
+          <x14:cfRule type="dataBar" id="{dcd6b5e6-bd52-4083-a94b-3b47385559e3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6919,7 +7085,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17 D20:D23</xm:sqref>
+          <xm:sqref>D17 D20:D24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Project: Shared Sounds</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Get Spotify songs</t>
+  </si>
+  <si>
+    <t>Combine songs and create playlist</t>
   </si>
   <si>
     <t>Testing</t>
@@ -268,6 +271,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -278,53 +288,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -342,13 +308,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -357,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +330,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +410,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,19 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,19 +524,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,25 +566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="1" tint="0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,67 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,58 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.799981688894314"/>
-      </right>
-      <top style="medium">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.349986266670736"/>
       </left>
@@ -766,6 +717,17 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.349986266670736"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,6 +758,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.799981688894314"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -807,142 +810,142 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="9" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="13" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1420,8 +1423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones34" displayName="Milestones34" ref="B7:G32" totalsRowShown="0">
-  <autoFilter ref="B7:G32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones34" displayName="Milestones34" ref="B7:G33" totalsRowShown="0">
+  <autoFilter ref="B7:G33">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1700,10 +1703,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EM34"/>
+  <dimension ref="A1:EM35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="Z9" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="30" customHeight="1"/>
@@ -3930,7 +3933,7 @@
         <v>45303</v>
       </c>
       <c r="F13" s="39">
-        <f t="shared" ref="F13:F21" si="12">E13+G13</f>
+        <f t="shared" ref="F13:F24" si="12">E13+G13</f>
         <v>45306</v>
       </c>
       <c r="G13" s="36">
@@ -5169,7 +5172,7 @@
         <v>45414</v>
       </c>
       <c r="F21" s="39">
-        <f>E21+G21</f>
+        <f t="shared" si="12"/>
         <v>45416</v>
       </c>
       <c r="G21" s="36">
@@ -5325,7 +5328,7 @@
         <v>45416</v>
       </c>
       <c r="F22" s="39">
-        <f>E22+G22</f>
+        <f t="shared" si="12"/>
         <v>45419</v>
       </c>
       <c r="G22" s="36">
@@ -5481,7 +5484,7 @@
         <v>45419</v>
       </c>
       <c r="F23" s="39">
-        <f>E23+G23</f>
+        <f t="shared" si="12"/>
         <v>45420</v>
       </c>
       <c r="G23" s="36">
@@ -5637,7 +5640,7 @@
         <v>45419</v>
       </c>
       <c r="F24" s="39">
-        <f>E24+G24</f>
+        <f t="shared" si="12"/>
         <v>45421</v>
       </c>
       <c r="G24" s="36">
@@ -5780,16 +5783,25 @@
       <c r="EL24" s="49"/>
       <c r="EM24" s="49"/>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:143">
+    <row r="25" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
       <c r="A25" s="9"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="38">
+        <v>45421</v>
+      </c>
+      <c r="F25" s="39">
+        <f>E25+G25</f>
+        <v>45423</v>
+      </c>
+      <c r="G25" s="36">
+        <v>2</v>
+      </c>
       <c r="H25" s="37"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
@@ -5927,15 +5939,13 @@
       <c r="EL25" s="49"/>
       <c r="EM25" s="49"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:143">
       <c r="A26" s="9"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="24">
-        <v>0</v>
-      </c>
+      <c r="D26" s="26"/>
       <c r="E26" s="38"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -6077,7 +6087,7 @@
       <c r="EM26" s="49"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
-      <c r="A27" s="2"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="23" t="s">
         <v>27</v>
       </c>
@@ -6374,13 +6384,15 @@
       <c r="EL28" s="49"/>
       <c r="EM28" s="49"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:143">
+    <row r="29" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
       <c r="A29" s="2"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="26"/>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
       <c r="E29" s="38"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
@@ -6521,15 +6533,13 @@
       <c r="EL29" s="49"/>
       <c r="EM29" s="49"/>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:143">
       <c r="A30" s="2"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="24">
-        <v>0</v>
-      </c>
+      <c r="D30" s="26"/>
       <c r="E30" s="38"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -6680,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
       <c r="I31" s="49"/>
@@ -6968,17 +6978,166 @@
       <c r="EL32" s="49"/>
       <c r="EM32" s="49"/>
     </row>
-    <row r="33" customHeight="1" spans="3:8">
-      <c r="C33" s="27"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
+    <row r="33" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
+      <c r="A33" s="2"/>
+      <c r="B33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="49"/>
+      <c r="BR33" s="49"/>
+      <c r="BS33" s="49"/>
+      <c r="BT33" s="49"/>
+      <c r="BU33" s="49"/>
+      <c r="BV33" s="49"/>
+      <c r="BW33" s="49"/>
+      <c r="BX33" s="49"/>
+      <c r="BY33" s="49"/>
+      <c r="BZ33" s="49"/>
+      <c r="CA33" s="49"/>
+      <c r="CB33" s="49"/>
+      <c r="CC33" s="49"/>
+      <c r="CD33" s="49"/>
+      <c r="CE33" s="49"/>
+      <c r="CF33" s="49"/>
+      <c r="CG33" s="49"/>
+      <c r="CH33" s="49"/>
+      <c r="CI33" s="49"/>
+      <c r="CJ33" s="49"/>
+      <c r="CK33" s="49"/>
+      <c r="CL33" s="49"/>
+      <c r="CM33" s="49"/>
+      <c r="CN33" s="49"/>
+      <c r="CO33" s="49"/>
+      <c r="CP33" s="49"/>
+      <c r="CQ33" s="49"/>
+      <c r="CR33" s="49"/>
+      <c r="CS33" s="49"/>
+      <c r="CT33" s="49"/>
+      <c r="CU33" s="49"/>
+      <c r="CV33" s="49"/>
+      <c r="CW33" s="49"/>
+      <c r="CX33" s="49"/>
+      <c r="CY33" s="49"/>
+      <c r="CZ33" s="49"/>
+      <c r="DA33" s="49"/>
+      <c r="DB33" s="49"/>
+      <c r="DC33" s="49"/>
+      <c r="DD33" s="49"/>
+      <c r="DE33" s="49"/>
+      <c r="DF33" s="49"/>
+      <c r="DG33" s="49"/>
+      <c r="DH33" s="49"/>
+      <c r="DI33" s="49"/>
+      <c r="DJ33" s="49"/>
+      <c r="DK33" s="49"/>
+      <c r="DL33" s="49"/>
+      <c r="DM33" s="49"/>
+      <c r="DN33" s="49"/>
+      <c r="DO33" s="49"/>
+      <c r="DP33" s="49"/>
+      <c r="DQ33" s="49"/>
+      <c r="DR33" s="49"/>
+      <c r="DS33" s="49"/>
+      <c r="DT33" s="49"/>
+      <c r="DU33" s="49"/>
+      <c r="DV33" s="49"/>
+      <c r="DW33" s="49"/>
+      <c r="DX33" s="49"/>
+      <c r="DY33" s="49"/>
+      <c r="DZ33" s="49"/>
+      <c r="EA33" s="49"/>
+      <c r="EB33" s="49"/>
+      <c r="EC33" s="49"/>
+      <c r="ED33" s="49"/>
+      <c r="EE33" s="49"/>
+      <c r="EF33" s="49"/>
+      <c r="EG33" s="49"/>
+      <c r="EH33" s="49"/>
+      <c r="EI33" s="49"/>
+      <c r="EJ33" s="49"/>
+      <c r="EK33" s="49"/>
+      <c r="EL33" s="49"/>
+      <c r="EM33" s="49"/>
     </row>
-    <row r="34" customHeight="1" spans="3:3">
-      <c r="C34" s="28"/>
+    <row r="34" customHeight="1" spans="3:8">
+      <c r="C34" s="27"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:3">
+      <c r="C35" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D7:D16 D18:D19 D25:D32">
+  <conditionalFormatting sqref="D7:D16 D18:D19 D26:D33">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6987,17 +7146,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86f64265-14bf-4ef8-946b-6c441c37c5eb}</x14:id>
+          <x14:id>{6856d85f-5f0e-4cd2-8f19-98aa02889ee9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:EM16 I18:EM19 I25:EM32">
+  <conditionalFormatting sqref="I8:EM16 I18:EM19 I26:EM33">
     <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
       <formula>AND(I$6&gt;=$E8,I$6&lt;$E8+$G8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D20:D24">
+  <conditionalFormatting sqref="D17 D20:D25">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7006,12 +7165,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dcd6b5e6-bd52-4083-a94b-3b47385559e3}</x14:id>
+          <x14:id>{fd479afc-e0e1-469b-93d6-95c5c26b6cba}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:EM17 I20:EM24">
+  <conditionalFormatting sqref="I17:EM17 I20:EM25">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>AND(I$6&gt;=$E17,I$6&lt;$E17+$G17)</formula>
     </cfRule>
@@ -7039,7 +7198,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{dccdea09-7142-4e50-9cac-710ac466748f}">
+          <x14:cfRule type="iconSet" priority="12" id="{2d1b2535-fd15-4c80-b142-2c3bbf9c3161}">
             <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7058,7 +7217,7 @@
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86f64265-14bf-4ef8-946b-6c441c37c5eb}">
+          <x14:cfRule type="dataBar" id="{6856d85f-5f0e-4cd2-8f19-98aa02889ee9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7070,10 +7229,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D16 D18:D19 D25:D32</xm:sqref>
+          <xm:sqref>D7:D16 D18:D19 D26:D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dcd6b5e6-bd52-4083-a94b-3b47385559e3}">
+          <x14:cfRule type="dataBar" id="{fd479afc-e0e1-469b-93d6-95c5c26b6cba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7085,7 +7244,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17 D20:D24</xm:sqref>
+          <xm:sqref>D17 D20:D25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -133,11 +133,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -264,6 +264,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -286,13 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -308,53 +308,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +330,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -383,7 +361,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +422,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +548,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,157 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +706,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.349986266670736"/>
       </left>
@@ -721,13 +732,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="8"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color theme="8"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,36 +788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="8" tint="0.799981688894314"/>
@@ -810,142 +810,142 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="15" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="9" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="10" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1705,8 +1705,8 @@
   </sheetPr>
   <dimension ref="A1:EM35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="Z9" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="30" customHeight="1"/>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="38">
         <v>45292</v>
@@ -3933,7 +3933,7 @@
         <v>45303</v>
       </c>
       <c r="F13" s="39">
-        <f t="shared" ref="F13:F24" si="12">E13+G13</f>
+        <f t="shared" ref="F13:F25" si="12">E13+G13</f>
         <v>45306</v>
       </c>
       <c r="G13" s="36">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="38">
         <v>45308</v>
@@ -5796,7 +5796,7 @@
         <v>45421</v>
       </c>
       <c r="F25" s="39">
-        <f>E25+G25</f>
+        <f t="shared" si="12"/>
         <v>45423</v>
       </c>
       <c r="G25" s="36">
@@ -6687,11 +6687,18 @@
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="24">
-        <v>0</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="38">
+        <v>45331</v>
+      </c>
+      <c r="F31" s="39">
+        <f>E31+G31</f>
+        <v>45425</v>
+      </c>
+      <c r="G31" s="36">
+        <v>94</v>
+      </c>
       <c r="H31" s="37"/>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
@@ -6836,11 +6843,18 @@
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="24">
-        <v>0</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="38">
+        <v>45331</v>
+      </c>
+      <c r="F32" s="39">
+        <f>E32+G32</f>
+        <v>45425</v>
+      </c>
+      <c r="G32" s="36">
+        <v>94</v>
+      </c>
       <c r="H32" s="37"/>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
@@ -6985,7 +6999,7 @@
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="39"/>
@@ -7146,7 +7160,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6856d85f-5f0e-4cd2-8f19-98aa02889ee9}</x14:id>
+          <x14:id>{6bfed251-1f5e-4917-b940-3aac299dd4dd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7165,7 +7179,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd479afc-e0e1-469b-93d6-95c5c26b6cba}</x14:id>
+          <x14:id>{81526ba4-4db6-41e8-b2e5-623b625da79c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7198,7 +7212,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{2d1b2535-fd15-4c80-b142-2c3bbf9c3161}">
+          <x14:cfRule type="iconSet" priority="12" id="{6cdc97bf-c11a-47ed-8fb8-7c17add51ecf}">
             <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7217,7 +7231,7 @@
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6856d85f-5f0e-4cd2-8f19-98aa02889ee9}">
+          <x14:cfRule type="dataBar" id="{6bfed251-1f5e-4917-b940-3aac299dd4dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7232,7 +7246,7 @@
           <xm:sqref>D7:D16 D18:D19 D26:D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fd479afc-e0e1-469b-93d6-95c5c26b6cba}">
+          <x14:cfRule type="dataBar" id="{81526ba4-4db6-41e8-b2e5-623b625da79c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/gantt chart.xlsx
+++ b/gantt chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Project: Shared Sounds</t>
   </si>
@@ -102,18 +102,6 @@
   </si>
   <si>
     <t>Combine songs and create playlist</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Design and run tests</t>
-  </si>
-  <si>
-    <t>Get feedback</t>
-  </si>
-  <si>
-    <t>Implement feedback</t>
   </si>
   <si>
     <t>Documentation</t>
@@ -1423,8 +1411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones34" displayName="Milestones34" ref="B7:G33" totalsRowShown="0">
-  <autoFilter ref="B7:G33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones34" displayName="Milestones34" ref="B7:G29" totalsRowShown="0">
+  <autoFilter ref="B7:G29">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1703,10 +1691,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EM35"/>
+  <dimension ref="A1:EM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="30" customHeight="1"/>
@@ -5940,7 +5928,7 @@
       <c r="EM25" s="49"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:143">
-      <c r="A26" s="9"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="20" t="s">
         <v>26</v>
       </c>
@@ -6087,17 +6075,24 @@
       <c r="EM26" s="49"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
-      <c r="A27" s="9"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="24">
-        <v>0</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="38">
+        <v>45331</v>
+      </c>
+      <c r="F27" s="39">
+        <f>E27+G27</f>
+        <v>45425</v>
+      </c>
+      <c r="G27" s="36">
+        <v>94</v>
+      </c>
       <c r="H27" s="37"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
@@ -6242,11 +6237,18 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="24">
-        <v>0</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="38">
+        <v>45331</v>
+      </c>
+      <c r="F28" s="39">
+        <f>E28+G28</f>
+        <v>45425</v>
+      </c>
+      <c r="G28" s="36">
+        <v>94</v>
+      </c>
       <c r="H28" s="37"/>
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
@@ -6391,11 +6393,18 @@
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="38">
+        <v>45424</v>
+      </c>
+      <c r="F29" s="39">
+        <f>E29+G29</f>
+        <v>45425</v>
+      </c>
+      <c r="G29" s="36">
+        <v>1</v>
+      </c>
       <c r="H29" s="37"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
@@ -6533,625 +6542,17 @@
       <c r="EL29" s="49"/>
       <c r="EM29" s="49"/>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:143">
-      <c r="A30" s="2"/>
-      <c r="B30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="49"/>
-      <c r="BA30" s="49"/>
-      <c r="BB30" s="49"/>
-      <c r="BC30" s="49"/>
-      <c r="BD30" s="49"/>
-      <c r="BE30" s="49"/>
-      <c r="BF30" s="49"/>
-      <c r="BG30" s="49"/>
-      <c r="BH30" s="49"/>
-      <c r="BI30" s="49"/>
-      <c r="BJ30" s="49"/>
-      <c r="BK30" s="49"/>
-      <c r="BL30" s="49"/>
-      <c r="BM30" s="49"/>
-      <c r="BN30" s="49"/>
-      <c r="BO30" s="49"/>
-      <c r="BP30" s="49"/>
-      <c r="BQ30" s="49"/>
-      <c r="BR30" s="49"/>
-      <c r="BS30" s="49"/>
-      <c r="BT30" s="49"/>
-      <c r="BU30" s="49"/>
-      <c r="BV30" s="49"/>
-      <c r="BW30" s="49"/>
-      <c r="BX30" s="49"/>
-      <c r="BY30" s="49"/>
-      <c r="BZ30" s="49"/>
-      <c r="CA30" s="49"/>
-      <c r="CB30" s="49"/>
-      <c r="CC30" s="49"/>
-      <c r="CD30" s="49"/>
-      <c r="CE30" s="49"/>
-      <c r="CF30" s="49"/>
-      <c r="CG30" s="49"/>
-      <c r="CH30" s="49"/>
-      <c r="CI30" s="49"/>
-      <c r="CJ30" s="49"/>
-      <c r="CK30" s="49"/>
-      <c r="CL30" s="49"/>
-      <c r="CM30" s="49"/>
-      <c r="CN30" s="49"/>
-      <c r="CO30" s="49"/>
-      <c r="CP30" s="49"/>
-      <c r="CQ30" s="49"/>
-      <c r="CR30" s="49"/>
-      <c r="CS30" s="49"/>
-      <c r="CT30" s="49"/>
-      <c r="CU30" s="49"/>
-      <c r="CV30" s="49"/>
-      <c r="CW30" s="49"/>
-      <c r="CX30" s="49"/>
-      <c r="CY30" s="49"/>
-      <c r="CZ30" s="49"/>
-      <c r="DA30" s="49"/>
-      <c r="DB30" s="49"/>
-      <c r="DC30" s="49"/>
-      <c r="DD30" s="49"/>
-      <c r="DE30" s="49"/>
-      <c r="DF30" s="49"/>
-      <c r="DG30" s="49"/>
-      <c r="DH30" s="49"/>
-      <c r="DI30" s="49"/>
-      <c r="DJ30" s="49"/>
-      <c r="DK30" s="49"/>
-      <c r="DL30" s="49"/>
-      <c r="DM30" s="49"/>
-      <c r="DN30" s="49"/>
-      <c r="DO30" s="49"/>
-      <c r="DP30" s="49"/>
-      <c r="DQ30" s="49"/>
-      <c r="DR30" s="49"/>
-      <c r="DS30" s="49"/>
-      <c r="DT30" s="49"/>
-      <c r="DU30" s="49"/>
-      <c r="DV30" s="49"/>
-      <c r="DW30" s="49"/>
-      <c r="DX30" s="49"/>
-      <c r="DY30" s="49"/>
-      <c r="DZ30" s="49"/>
-      <c r="EA30" s="49"/>
-      <c r="EB30" s="49"/>
-      <c r="EC30" s="49"/>
-      <c r="ED30" s="49"/>
-      <c r="EE30" s="49"/>
-      <c r="EF30" s="49"/>
-      <c r="EG30" s="49"/>
-      <c r="EH30" s="49"/>
-      <c r="EI30" s="49"/>
-      <c r="EJ30" s="49"/>
-      <c r="EK30" s="49"/>
-      <c r="EL30" s="49"/>
-      <c r="EM30" s="49"/>
+    <row r="30" customHeight="1" spans="3:8">
+      <c r="C30" s="27"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
-      <c r="A31" s="2"/>
-      <c r="B31" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="38">
-        <v>45331</v>
-      </c>
-      <c r="F31" s="39">
-        <f>E31+G31</f>
-        <v>45425</v>
-      </c>
-      <c r="G31" s="36">
-        <v>94</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="49"/>
-      <c r="BP31" s="49"/>
-      <c r="BQ31" s="49"/>
-      <c r="BR31" s="49"/>
-      <c r="BS31" s="49"/>
-      <c r="BT31" s="49"/>
-      <c r="BU31" s="49"/>
-      <c r="BV31" s="49"/>
-      <c r="BW31" s="49"/>
-      <c r="BX31" s="49"/>
-      <c r="BY31" s="49"/>
-      <c r="BZ31" s="49"/>
-      <c r="CA31" s="49"/>
-      <c r="CB31" s="49"/>
-      <c r="CC31" s="49"/>
-      <c r="CD31" s="49"/>
-      <c r="CE31" s="49"/>
-      <c r="CF31" s="49"/>
-      <c r="CG31" s="49"/>
-      <c r="CH31" s="49"/>
-      <c r="CI31" s="49"/>
-      <c r="CJ31" s="49"/>
-      <c r="CK31" s="49"/>
-      <c r="CL31" s="49"/>
-      <c r="CM31" s="49"/>
-      <c r="CN31" s="49"/>
-      <c r="CO31" s="49"/>
-      <c r="CP31" s="49"/>
-      <c r="CQ31" s="49"/>
-      <c r="CR31" s="49"/>
-      <c r="CS31" s="49"/>
-      <c r="CT31" s="49"/>
-      <c r="CU31" s="49"/>
-      <c r="CV31" s="49"/>
-      <c r="CW31" s="49"/>
-      <c r="CX31" s="49"/>
-      <c r="CY31" s="49"/>
-      <c r="CZ31" s="49"/>
-      <c r="DA31" s="49"/>
-      <c r="DB31" s="49"/>
-      <c r="DC31" s="49"/>
-      <c r="DD31" s="49"/>
-      <c r="DE31" s="49"/>
-      <c r="DF31" s="49"/>
-      <c r="DG31" s="49"/>
-      <c r="DH31" s="49"/>
-      <c r="DI31" s="49"/>
-      <c r="DJ31" s="49"/>
-      <c r="DK31" s="49"/>
-      <c r="DL31" s="49"/>
-      <c r="DM31" s="49"/>
-      <c r="DN31" s="49"/>
-      <c r="DO31" s="49"/>
-      <c r="DP31" s="49"/>
-      <c r="DQ31" s="49"/>
-      <c r="DR31" s="49"/>
-      <c r="DS31" s="49"/>
-      <c r="DT31" s="49"/>
-      <c r="DU31" s="49"/>
-      <c r="DV31" s="49"/>
-      <c r="DW31" s="49"/>
-      <c r="DX31" s="49"/>
-      <c r="DY31" s="49"/>
-      <c r="DZ31" s="49"/>
-      <c r="EA31" s="49"/>
-      <c r="EB31" s="49"/>
-      <c r="EC31" s="49"/>
-      <c r="ED31" s="49"/>
-      <c r="EE31" s="49"/>
-      <c r="EF31" s="49"/>
-      <c r="EG31" s="49"/>
-      <c r="EH31" s="49"/>
-      <c r="EI31" s="49"/>
-      <c r="EJ31" s="49"/>
-      <c r="EK31" s="49"/>
-      <c r="EL31" s="49"/>
-      <c r="EM31" s="49"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
-      <c r="A32" s="2"/>
-      <c r="B32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="24">
-        <v>1</v>
-      </c>
-      <c r="E32" s="38">
-        <v>45331</v>
-      </c>
-      <c r="F32" s="39">
-        <f>E32+G32</f>
-        <v>45425</v>
-      </c>
-      <c r="G32" s="36">
-        <v>94</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="49"/>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
-      <c r="BC32" s="49"/>
-      <c r="BD32" s="49"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="BG32" s="49"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="BK32" s="49"/>
-      <c r="BL32" s="49"/>
-      <c r="BM32" s="49"/>
-      <c r="BN32" s="49"/>
-      <c r="BO32" s="49"/>
-      <c r="BP32" s="49"/>
-      <c r="BQ32" s="49"/>
-      <c r="BR32" s="49"/>
-      <c r="BS32" s="49"/>
-      <c r="BT32" s="49"/>
-      <c r="BU32" s="49"/>
-      <c r="BV32" s="49"/>
-      <c r="BW32" s="49"/>
-      <c r="BX32" s="49"/>
-      <c r="BY32" s="49"/>
-      <c r="BZ32" s="49"/>
-      <c r="CA32" s="49"/>
-      <c r="CB32" s="49"/>
-      <c r="CC32" s="49"/>
-      <c r="CD32" s="49"/>
-      <c r="CE32" s="49"/>
-      <c r="CF32" s="49"/>
-      <c r="CG32" s="49"/>
-      <c r="CH32" s="49"/>
-      <c r="CI32" s="49"/>
-      <c r="CJ32" s="49"/>
-      <c r="CK32" s="49"/>
-      <c r="CL32" s="49"/>
-      <c r="CM32" s="49"/>
-      <c r="CN32" s="49"/>
-      <c r="CO32" s="49"/>
-      <c r="CP32" s="49"/>
-      <c r="CQ32" s="49"/>
-      <c r="CR32" s="49"/>
-      <c r="CS32" s="49"/>
-      <c r="CT32" s="49"/>
-      <c r="CU32" s="49"/>
-      <c r="CV32" s="49"/>
-      <c r="CW32" s="49"/>
-      <c r="CX32" s="49"/>
-      <c r="CY32" s="49"/>
-      <c r="CZ32" s="49"/>
-      <c r="DA32" s="49"/>
-      <c r="DB32" s="49"/>
-      <c r="DC32" s="49"/>
-      <c r="DD32" s="49"/>
-      <c r="DE32" s="49"/>
-      <c r="DF32" s="49"/>
-      <c r="DG32" s="49"/>
-      <c r="DH32" s="49"/>
-      <c r="DI32" s="49"/>
-      <c r="DJ32" s="49"/>
-      <c r="DK32" s="49"/>
-      <c r="DL32" s="49"/>
-      <c r="DM32" s="49"/>
-      <c r="DN32" s="49"/>
-      <c r="DO32" s="49"/>
-      <c r="DP32" s="49"/>
-      <c r="DQ32" s="49"/>
-      <c r="DR32" s="49"/>
-      <c r="DS32" s="49"/>
-      <c r="DT32" s="49"/>
-      <c r="DU32" s="49"/>
-      <c r="DV32" s="49"/>
-      <c r="DW32" s="49"/>
-      <c r="DX32" s="49"/>
-      <c r="DY32" s="49"/>
-      <c r="DZ32" s="49"/>
-      <c r="EA32" s="49"/>
-      <c r="EB32" s="49"/>
-      <c r="EC32" s="49"/>
-      <c r="ED32" s="49"/>
-      <c r="EE32" s="49"/>
-      <c r="EF32" s="49"/>
-      <c r="EG32" s="49"/>
-      <c r="EH32" s="49"/>
-      <c r="EI32" s="49"/>
-      <c r="EJ32" s="49"/>
-      <c r="EK32" s="49"/>
-      <c r="EL32" s="49"/>
-      <c r="EM32" s="49"/>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:143">
-      <c r="A33" s="2"/>
-      <c r="B33" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24">
-        <v>1</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
-      <c r="BP33" s="49"/>
-      <c r="BQ33" s="49"/>
-      <c r="BR33" s="49"/>
-      <c r="BS33" s="49"/>
-      <c r="BT33" s="49"/>
-      <c r="BU33" s="49"/>
-      <c r="BV33" s="49"/>
-      <c r="BW33" s="49"/>
-      <c r="BX33" s="49"/>
-      <c r="BY33" s="49"/>
-      <c r="BZ33" s="49"/>
-      <c r="CA33" s="49"/>
-      <c r="CB33" s="49"/>
-      <c r="CC33" s="49"/>
-      <c r="CD33" s="49"/>
-      <c r="CE33" s="49"/>
-      <c r="CF33" s="49"/>
-      <c r="CG33" s="49"/>
-      <c r="CH33" s="49"/>
-      <c r="CI33" s="49"/>
-      <c r="CJ33" s="49"/>
-      <c r="CK33" s="49"/>
-      <c r="CL33" s="49"/>
-      <c r="CM33" s="49"/>
-      <c r="CN33" s="49"/>
-      <c r="CO33" s="49"/>
-      <c r="CP33" s="49"/>
-      <c r="CQ33" s="49"/>
-      <c r="CR33" s="49"/>
-      <c r="CS33" s="49"/>
-      <c r="CT33" s="49"/>
-      <c r="CU33" s="49"/>
-      <c r="CV33" s="49"/>
-      <c r="CW33" s="49"/>
-      <c r="CX33" s="49"/>
-      <c r="CY33" s="49"/>
-      <c r="CZ33" s="49"/>
-      <c r="DA33" s="49"/>
-      <c r="DB33" s="49"/>
-      <c r="DC33" s="49"/>
-      <c r="DD33" s="49"/>
-      <c r="DE33" s="49"/>
-      <c r="DF33" s="49"/>
-      <c r="DG33" s="49"/>
-      <c r="DH33" s="49"/>
-      <c r="DI33" s="49"/>
-      <c r="DJ33" s="49"/>
-      <c r="DK33" s="49"/>
-      <c r="DL33" s="49"/>
-      <c r="DM33" s="49"/>
-      <c r="DN33" s="49"/>
-      <c r="DO33" s="49"/>
-      <c r="DP33" s="49"/>
-      <c r="DQ33" s="49"/>
-      <c r="DR33" s="49"/>
-      <c r="DS33" s="49"/>
-      <c r="DT33" s="49"/>
-      <c r="DU33" s="49"/>
-      <c r="DV33" s="49"/>
-      <c r="DW33" s="49"/>
-      <c r="DX33" s="49"/>
-      <c r="DY33" s="49"/>
-      <c r="DZ33" s="49"/>
-      <c r="EA33" s="49"/>
-      <c r="EB33" s="49"/>
-      <c r="EC33" s="49"/>
-      <c r="ED33" s="49"/>
-      <c r="EE33" s="49"/>
-      <c r="EF33" s="49"/>
-      <c r="EG33" s="49"/>
-      <c r="EH33" s="49"/>
-      <c r="EI33" s="49"/>
-      <c r="EJ33" s="49"/>
-      <c r="EK33" s="49"/>
-      <c r="EL33" s="49"/>
-      <c r="EM33" s="49"/>
-    </row>
-    <row r="34" customHeight="1" spans="3:8">
-      <c r="C34" s="27"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-    </row>
-    <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="28"/>
+    <row r="31" customHeight="1" spans="3:3">
+      <c r="C31" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D7:D16 D18:D19 D26:D33">
+  <conditionalFormatting sqref="D7:D16 D18:D19 D26:D29">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7160,12 +6561,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6bfed251-1f5e-4917-b940-3aac299dd4dd}</x14:id>
+          <x14:id>{5c1c5a3d-7855-4772-afdd-a8652eb383fa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:EM16 I18:EM19 I26:EM33">
+  <conditionalFormatting sqref="I8:EM16 I18:EM19 I26:EM29">
     <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
       <formula>AND(I$6&gt;=$E8,I$6&lt;$E8+$G8)</formula>
     </cfRule>
@@ -7179,7 +6580,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81526ba4-4db6-41e8-b2e5-623b625da79c}</x14:id>
+          <x14:id>{a423b605-170f-47c8-83a0-14f940f60aed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7212,7 +6613,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{6cdc97bf-c11a-47ed-8fb8-7c17add51ecf}">
+          <x14:cfRule type="iconSet" priority="12" id="{f07b5f68-1fb6-481b-9e2c-4dbec07c02cb}">
             <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7231,7 +6632,7 @@
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6bfed251-1f5e-4917-b940-3aac299dd4dd}">
+          <x14:cfRule type="dataBar" id="{5c1c5a3d-7855-4772-afdd-a8652eb383fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7243,10 +6644,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D16 D18:D19 D26:D33</xm:sqref>
+          <xm:sqref>D7:D16 D18:D19 D26:D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{81526ba4-4db6-41e8-b2e5-623b625da79c}">
+          <x14:cfRule type="dataBar" id="{a423b605-170f-47c8-83a0-14f940f60aed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
